--- a/2019년 소모품 신청서_5조.xlsx
+++ b/2019년 소모품 신청서_5조.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MDP_5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3C702-AAB2-4297-8C8A-048370F0FDAD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2018년 1차" sheetId="10" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="2018년 4차" sheetId="13" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -507,7 +501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -1025,46 +1019,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,6 +1031,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1106,12 +1063,49 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준_Sheet1" xfId="2"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1170,7 +1164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1203,26 +1197,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,23 +1232,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1447,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1457,32 +1417,32 @@
       <selection activeCell="C9" activeCellId="1" sqref="B9 C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1492,79 +1452,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1618,7 +1578,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>2</v>
       </c>
@@ -1648,7 +1608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1676,7 +1636,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1689,7 +1649,7 @@
       <c r="H12" s="33"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1702,7 +1662,7 @@
       <c r="H13" s="33"/>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1715,7 +1675,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1728,7 +1688,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1741,7 +1701,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1754,7 +1714,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1767,7 +1727,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1780,7 +1740,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1793,7 +1753,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1806,7 +1766,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1819,7 +1779,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1832,7 +1792,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1845,7 +1805,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1858,7 +1818,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -1871,7 +1831,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -1884,7 +1844,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -1896,11 +1856,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -1911,37 +1871,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -1949,13 +1909,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -1971,21 +1931,14 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -1996,11 +1949,18 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId1"/>
+    <hyperlink ref="H11" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -2010,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2020,32 +1980,32 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2055,79 +2015,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2153,7 +2113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -2181,7 +2141,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -2209,7 +2169,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -2237,7 +2197,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -2265,7 +2225,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -2293,7 +2253,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -2321,7 +2281,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -2334,7 +2294,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -2347,7 +2307,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -2360,7 +2320,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -2373,7 +2333,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -2386,7 +2346,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -2399,7 +2359,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -2412,7 +2372,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -2425,7 +2385,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -2438,7 +2398,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -2451,7 +2411,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -2464,7 +2424,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -2477,7 +2437,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -2490,7 +2450,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -2502,11 +2462,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -2517,37 +2477,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -2555,13 +2515,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -2577,21 +2537,14 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -2602,13 +2555,20 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H11" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H14" r:id="rId4"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -2618,7 +2578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2628,32 +2588,32 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2663,79 +2623,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2761,7 +2721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -2789,7 +2749,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -2817,7 +2777,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -2845,7 +2805,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -2873,7 +2833,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -2901,7 +2861,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -2929,7 +2889,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -2957,7 +2917,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -2985,7 +2945,7 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -2998,7 +2958,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -3011,7 +2971,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -3024,7 +2984,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -3037,7 +2997,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -3050,7 +3010,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -3063,7 +3023,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -3076,7 +3036,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -3089,7 +3049,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -3102,7 +3062,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -3115,7 +3075,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -3128,7 +3088,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -3140,11 +3100,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -3155,37 +3115,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -3193,13 +3153,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -3215,21 +3175,14 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3240,17 +3193,24 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="H12" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="H13" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="H15" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="H16" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H10" r:id="rId2"/>
+    <hyperlink ref="H11" r:id="rId3"/>
+    <hyperlink ref="H12" r:id="rId4"/>
+    <hyperlink ref="H13" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H15" r:id="rId7"/>
+    <hyperlink ref="H16" r:id="rId8"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -3260,42 +3220,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3305,79 +3265,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3403,7 +3363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -3423,14 +3383,14 @@
         <v>29000</v>
       </c>
       <c r="G9" s="35">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -3457,7 +3417,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -3484,7 +3444,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -3511,7 +3471,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -3538,7 +3498,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -3565,7 +3525,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -3592,7 +3552,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -3605,7 +3565,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -3618,7 +3578,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -3631,7 +3591,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -3644,7 +3604,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -3657,7 +3617,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -3670,7 +3630,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -3683,7 +3643,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -3696,7 +3656,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -3709,7 +3669,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -3722,7 +3682,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -3735,7 +3695,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -3748,7 +3708,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -3761,7 +3721,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -3774,7 +3734,7 @@
       <c r="H29" s="33"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -3787,7 +3747,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19">
         <v>23</v>
       </c>
@@ -3800,7 +3760,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19">
         <v>24</v>
       </c>
@@ -3813,7 +3773,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19">
         <v>25</v>
       </c>
@@ -3825,52 +3785,52 @@
       <c r="G33" s="35"/>
       <c r="H33" s="33"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="75"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="37"/>
       <c r="G34" s="20">
         <f>SUM(G9:G33)</f>
-        <v>342300</v>
+        <v>371300</v>
       </c>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
+    <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="78"/>
-    </row>
-    <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+    </row>
+    <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="68"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="22" t="s">
         <v>14</v>
       </c>
@@ -3878,13 +3838,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
+    <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="55"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="22"/>
       <c r="H38" s="6"/>
     </row>
@@ -3900,21 +3860,14 @@
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H42" s="21"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:H36"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3925,14 +3878,21 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:H36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{E641E938-63D1-4CDA-B134-05C21C41D104}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{5899B35E-C0CB-4611-8749-99B68656DA7D}"/>
-    <hyperlink ref="H11" r:id="rId3" xr:uid="{F3C344E3-C804-4AD4-8C66-177FF5FDAFBE}"/>
-    <hyperlink ref="H13" r:id="rId4" xr:uid="{3A67072A-C6D3-49F3-A904-ECBD5D524537}"/>
-    <hyperlink ref="H14" r:id="rId5" display="http://item.gmarket.co.kr/DetailView/Item.asp?goodscode=650987704&amp;GoodsSale=Y&amp;jaehuid=200002657&amp;service_id=elecdn" xr:uid="{FD80836F-DE8E-4634-BEC7-59674CB61672}"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H10" r:id="rId2"/>
+    <hyperlink ref="H11" r:id="rId3"/>
+    <hyperlink ref="H13" r:id="rId4"/>
+    <hyperlink ref="H14" r:id="rId5" display="http://item.gmarket.co.kr/DetailView/Item.asp?goodscode=650987704&amp;GoodsSale=Y&amp;jaehuid=200002657&amp;service_id=elecdn"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -3942,14 +3902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019년 소모품 신청서_5조.xlsx
+++ b/2019년 소모품 신청서_5조.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
   <si>
     <r>
       <t>물품(</t>
@@ -496,6 +496,28 @@
   <si>
     <t>가로 약 400mm / 세로 약 370mm / 높이 약 240mm / 진동기능포함</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/168507281?itemId=482427440&amp;vendorItemId=4213372622&amp;q=%ED%8F%AC%EB%A7%A5%EC%8A%A4+3T+%ED%8C%8C%EB%9E%91&amp;itemsCount=36&amp;searchId=e446fc3e8b0b4976a2384d845152c508&amp;rank=4&amp;isAddedCart=</t>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포맥스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3T/청색/300mm*600mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3T/청색/400mm*600mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/168507281?itemId=482427440&amp;vendorItemId=4213373341&amp;q=%ED%8F%AC%EB%A7%A5%EC%8A%A4+3T+%ED%8C%8C%EB%9E%91&amp;itemsCount=36&amp;searchId=e446fc3e8b0b4976a2384d845152c508&amp;rank=4&amp;isAddedCart=</t>
   </si>
 </sst>
 </file>
@@ -1019,6 +1041,46 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,9 +1093,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,43 +1122,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1431,16 +1453,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
@@ -1453,76 +1475,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="77"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
@@ -1857,10 +1879,10 @@
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -1872,36 +1894,36 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
     </row>
     <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -1910,12 +1932,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -1939,6 +1961,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -1949,13 +1978,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1994,16 +2016,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
@@ -2016,76 +2038,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="77"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
@@ -2463,10 +2485,10 @@
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -2478,36 +2500,36 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
     </row>
     <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -2516,12 +2538,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -2545,6 +2567,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -2555,13 +2584,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2602,16 +2624,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
@@ -2624,76 +2646,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="77"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
@@ -3101,10 +3123,10 @@
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -3116,36 +3138,36 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
     </row>
     <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -3154,12 +3176,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -3183,6 +3205,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3193,13 +3222,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3226,8 +3248,8 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3244,16 +3266,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
@@ -3266,76 +3288,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="77"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
@@ -3556,26 +3578,54 @@
       <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
+      <c r="B16" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="45">
+        <v>2</v>
+      </c>
+      <c r="F16" s="36">
+        <v>8700</v>
+      </c>
+      <c r="G16" s="35">
+        <v>17400</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
+      <c r="B17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="25">
+        <v>4</v>
+      </c>
+      <c r="F17" s="35">
+        <v>11600</v>
+      </c>
+      <c r="G17" s="35">
+        <v>46400</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>99</v>
+      </c>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3786,51 +3836,51 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="37"/>
       <c r="G34" s="20">
         <f>SUM(G9:G33)</f>
-        <v>371300</v>
+        <v>435100</v>
       </c>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="65"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="78"/>
     </row>
     <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="68"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="22" t="s">
         <v>14</v>
       </c>
@@ -3839,12 +3889,12 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="55"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="22"/>
       <c r="H38" s="6"/>
     </row>
@@ -3868,6 +3918,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:H36"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3878,13 +3935,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:H36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/2019년 소모품 신청서_5조.xlsx
+++ b/2019년 소모품 신청서_5조.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MDP_5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB99F48-8C4D-4C66-8459-C1A006D3012F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-8424" yWindow="1644" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018년 1차" sheetId="10" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="2018년 4차" sheetId="13" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="104">
   <si>
     <r>
       <t>물품(</t>
@@ -519,11 +525,27 @@
   <si>
     <t>https://www.coupang.com/vp/products/168507281?itemId=482427440&amp;vendorItemId=4213373341&amp;q=%ED%8F%AC%EB%A7%A5%EC%8A%A4+3T+%ED%8C%8C%EB%9E%91&amp;itemsCount=36&amp;searchId=e446fc3e8b0b4976a2384d845152c508&amp;rank=4&amp;isAddedCart=</t>
   </si>
+  <si>
+    <t>프로파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kiprofile.com/cart/shop/item.php?it_id=1292472736</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNF3030 / 5200mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -1041,46 +1063,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,6 +1075,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,12 +1107,49 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_Sheet1" xfId="2"/>
+    <cellStyle name="표준_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1186,7 +1208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1219,9 +1241,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1254,6 +1293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1429,7 +1485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1439,32 +1495,32 @@
       <selection activeCell="C9" activeCellId="1" sqref="B9 C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1474,79 +1530,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1600,7 +1656,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>2</v>
       </c>
@@ -1630,7 +1686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1658,7 +1714,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1671,7 +1727,7 @@
       <c r="H12" s="33"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1684,7 +1740,7 @@
       <c r="H13" s="33"/>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1697,7 +1753,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1710,7 +1766,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1723,7 +1779,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1736,7 +1792,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1749,7 +1805,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1762,7 +1818,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1775,7 +1831,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1788,7 +1844,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1801,7 +1857,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1814,7 +1870,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1827,7 +1883,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1840,7 +1896,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -1853,7 +1909,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -1866,7 +1922,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -1878,11 +1934,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -1893,37 +1949,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -1931,13 +1987,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -1953,21 +2009,14 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -1978,11 +2027,18 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1"/>
-    <hyperlink ref="H11" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -1992,7 +2048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2002,32 +2058,32 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2037,79 +2093,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2135,7 +2191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -2163,7 +2219,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -2191,7 +2247,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -2219,7 +2275,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -2247,7 +2303,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -2275,7 +2331,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -2303,7 +2359,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -2316,7 +2372,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -2329,7 +2385,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -2342,7 +2398,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -2355,7 +2411,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -2368,7 +2424,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -2381,7 +2437,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -2394,7 +2450,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -2407,7 +2463,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -2420,7 +2476,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -2433,7 +2489,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -2446,7 +2502,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -2459,7 +2515,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -2472,7 +2528,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -2484,11 +2540,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -2499,37 +2555,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -2537,13 +2593,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -2559,21 +2615,14 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -2584,13 +2633,20 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H11" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3"/>
-    <hyperlink ref="H14" r:id="rId4"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -2600,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2610,32 +2666,32 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2645,79 +2701,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2743,7 +2799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -2771,7 +2827,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -2799,7 +2855,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -2827,7 +2883,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -2855,7 +2911,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -2883,7 +2939,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -2911,7 +2967,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -2939,7 +2995,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -2967,7 +3023,7 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -2980,7 +3036,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -2993,7 +3049,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -3006,7 +3062,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -3019,7 +3075,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -3032,7 +3088,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -3045,7 +3101,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -3058,7 +3114,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -3071,7 +3127,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -3084,7 +3140,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -3097,7 +3153,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -3110,7 +3166,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -3122,11 +3178,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -3137,37 +3193,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -3175,13 +3231,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -3197,21 +3253,14 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3222,17 +3271,24 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H10" r:id="rId2"/>
-    <hyperlink ref="H11" r:id="rId3"/>
-    <hyperlink ref="H12" r:id="rId4"/>
-    <hyperlink ref="H13" r:id="rId5"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H15" r:id="rId7"/>
-    <hyperlink ref="H16" r:id="rId8"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H12" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="H13" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="H14" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="H15" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="H16" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -3242,42 +3298,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3287,79 +3343,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3385,7 +3441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -3412,7 +3468,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -3439,7 +3495,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -3466,7 +3522,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -3493,7 +3549,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -3520,7 +3576,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -3547,7 +3603,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -3574,7 +3630,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -3601,17 +3657,17 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="50" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="25">
@@ -3628,20 +3684,34 @@
       </c>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="35">
+        <v>33500</v>
+      </c>
+      <c r="G18" s="35">
+        <v>33500</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -3654,7 +3724,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -3667,7 +3737,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -3680,7 +3750,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -3693,7 +3763,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -3706,7 +3776,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -3719,7 +3789,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -3732,7 +3802,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -3745,7 +3815,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -3758,7 +3828,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -3771,7 +3841,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -3784,7 +3854,7 @@
       <c r="H29" s="33"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -3797,7 +3867,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>23</v>
       </c>
@@ -3810,7 +3880,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>24</v>
       </c>
@@ -3823,7 +3893,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>25</v>
       </c>
@@ -3835,52 +3905,52 @@
       <c r="G33" s="35"/>
       <c r="H33" s="33"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="74" t="s">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="75"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="37"/>
       <c r="G34" s="20">
         <f>SUM(G9:G33)</f>
-        <v>435100</v>
+        <v>468600</v>
       </c>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="76" t="s">
+    <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="78"/>
-    </row>
-    <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="66" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+    </row>
+    <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="68"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="22" t="s">
         <v>14</v>
       </c>
@@ -3888,13 +3958,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
+    <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="22"/>
       <c r="H38" s="6"/>
     </row>
@@ -3910,21 +3980,14 @@
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="21"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:H36"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3935,31 +3998,39 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:H36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H10" r:id="rId2"/>
-    <hyperlink ref="H11" r:id="rId3"/>
-    <hyperlink ref="H13" r:id="rId4"/>
-    <hyperlink ref="H14" r:id="rId5" display="http://item.gmarket.co.kr/DetailView/Item.asp?goodscode=650987704&amp;GoodsSale=Y&amp;jaehuid=200002657&amp;service_id=elecdn"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H13" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H14" r:id="rId5" display="http://item.gmarket.co.kr/DetailView/Item.asp?goodscode=650987704&amp;GoodsSale=Y&amp;jaehuid=200002657&amp;service_id=elecdn" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H18" r:id="rId6" xr:uid="{0CF8F156-C183-4BFA-B2E5-D43D9E811D4B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId7"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
